--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2392394.317900546</v>
+        <v>2448799.436404039</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17298407.14104213</v>
+        <v>16612500.99216495</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484439</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5259626.174571034</v>
+        <v>5325409.271248442</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>419.3512381918945</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>332.4291174559665</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>99.54332532118158</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>36.89684983821897</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>26.28512821040621</v>
+        <v>34.06158462964717</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>320.0331481255876</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1142,7 +1142,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>337.0311136373215</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1199,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>102.2146311366279</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>409.2417043793286</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1424,7 +1424,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633437</v>
       </c>
     </row>
     <row r="12">
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170498</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>205.8759751982044</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>151.0594442083499</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112162</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1822,13 +1822,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>103.3456594571964</v>
+        <v>139.9514671241878</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1904,7 +1904,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>250.9971266563963</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225723</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629683</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225779</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2381,7 +2381,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864815</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2485,13 +2485,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>35.34780583513542</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>222.6988144892033</v>
       </c>
     </row>
     <row r="26">
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3035,7 +3035,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932896</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225655</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5227407452992</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H37" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>43.80028873226784</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>157.9278715393747</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.2360492602943</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6733315691424</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>96.28657619153165</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864829</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.5273620187299</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.2363335358519</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>252.7381876462876</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407903</v>
+        <v>190.5122932219854</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y44" t="n">
-        <v>132.8135104125033</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>65.6487546086002</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.2363335358519</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>947.0019290635947</v>
       </c>
       <c r="C2" t="n">
-        <v>822.1393557439874</v>
+        <v>523.4148197788528</v>
       </c>
       <c r="D2" t="n">
-        <v>393.5576814812557</v>
+        <v>491.5454389937014</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1392.64927858873</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1377.547219208445</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>969.2610955080985</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4489,19 +4489,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>91.74450617142992</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>509.954387939391</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>509.954387939391</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1697.183430080417</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>1532.240118618369</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>550.1887779922017</v>
+        <v>1049.277272610597</v>
       </c>
       <c r="C5" t="n">
-        <v>516.086709216029</v>
+        <v>1015.175203834424</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>579.2654190088683</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>478.7166055531293</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233711</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233711</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233711</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1805.966478762204</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2262.397026790873</v>
       </c>
       <c r="V5" t="n">
-        <v>1400.691582106304</v>
+        <v>1899.780076724699</v>
       </c>
       <c r="W5" t="n">
-        <v>1399.876531557741</v>
+        <v>1898.965026176136</v>
       </c>
       <c r="X5" t="n">
-        <v>1384.774472177456</v>
+        <v>1479.822562755447</v>
       </c>
       <c r="Y5" t="n">
-        <v>976.4883484771095</v>
+        <v>1071.5364390551</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993472</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>431.6596472970915</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>454.6477016666967</v>
+        <v>593.0357356940399</v>
       </c>
       <c r="C7" t="n">
-        <v>454.6477016666967</v>
+        <v>420.4740241772648</v>
       </c>
       <c r="D7" t="n">
-        <v>454.6477016666967</v>
+        <v>254.5960313787875</v>
       </c>
       <c r="E7" t="n">
-        <v>454.6477016666967</v>
+        <v>84.83802762952476</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.1908411606127</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179227</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2340.960139477224</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2095.080693055679</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>1816.647692308784</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>1529.692184179215</v>
       </c>
       <c r="W7" t="n">
-        <v>454.6477016666967</v>
+        <v>1257.665779765506</v>
       </c>
       <c r="X7" t="n">
-        <v>454.6477016666967</v>
+        <v>1012.274025098919</v>
       </c>
       <c r="Y7" t="n">
-        <v>454.6477016666967</v>
+        <v>784.8543544130271</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>442.640221925911</v>
+        <v>489.9592645846402</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>455.8571958084675</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>423.9878150233161</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>394.2534742220153</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>868.9397924108188</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1024.341879988165</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>851.7801684713901</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1688.971924059632</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1443.580169393044</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="Y10" t="n">
-        <v>1216.160498707152</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2508.822071452367</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2070.679598635791</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1634.769813810235</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1200.99506896853</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6196099995113</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2217786227753</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>97.09162406599152</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9295221460494</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.279814104227</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2309.599342541223</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2309.599342541223</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N11" t="n">
-        <v>2309.599342541223</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3289.779009111529</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4118.088883944925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4664.58766990352</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4833.741734656576</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4750.089860840413</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4530.022633713452</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4530.022633713452</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4167.405683647277</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3762.550229058311</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3343.407765637622</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2935.121641937275</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.8465796844243</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.3901185210666</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.2998296676199</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.1794149945736</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.7955766107352</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4104868769191</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7385078535891</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.914596171941</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6362599849667</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.1504807641875</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.168672110744</v>
+        <v>875.8255515988632</v>
       </c>
       <c r="C13" t="n">
-        <v>633.6069605939689</v>
+        <v>703.2638400820881</v>
       </c>
       <c r="D13" t="n">
-        <v>467.7289677954916</v>
+        <v>537.3858472836108</v>
       </c>
       <c r="E13" t="n">
-        <v>297.9709640462289</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F13" t="n">
-        <v>121.263910007985</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G13" t="n">
-        <v>96.67483469313153</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>96.67483469313153</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.2545198578214</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.012974428957</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2228561969181</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.965526535475</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.093075893928</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.213629472383</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.780628725488</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.825120595919</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.79871618221</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.406961515623</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y13" t="n">
-        <v>997.9872908297311</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.314042074141</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.171569257564</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.261784432008</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.487039590304</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6196099995113</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2217786227752</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H14" t="n">
-        <v>97.09162406599152</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9295221460494</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.279814104227</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.339780357087</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3289.779009111529</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4118.088883944925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4664.58766990352</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4833.741734656576</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4750.089860840413</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4530.022633713452</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4270.800331030468</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3908.183380964295</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3503.327926375328</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3084.185462954639</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2675.899339254292</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.8465796844243</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.3901185210666</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.2998296676199</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.1794149945736</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.7955766107352</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4104868769191</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7385078535891</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.914596171941</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6362599849667</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.1504807641875</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.1708717700626</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6091602532877</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7311674548104</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>438.9731637055477</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>262.2661096673039</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>96.67483469313153</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
-        <v>96.67483469313153</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.2545198578214</v>
+        <v>188.8405254354704</v>
       </c>
       <c r="K16" t="n">
-        <v>458.012974428957</v>
+        <v>463.598980006606</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2228561969181</v>
+        <v>881.808861774567</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.965526535476</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.334444595931</v>
+        <v>2697.502628878952</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.093075893928</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.213629472384</v>
+        <v>2292.381813755404</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.780628725489</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.825120595919</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.798716182211</v>
+        <v>1741.9224085948</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.409161174942</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.98949048905</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.811823092179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.669350275602</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.759565450046</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.984820608342</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>790.1173910175494</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G17" t="n">
-        <v>388.7195596408133</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
-        <v>99.58940508402962</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>99.17261571116963</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>534.4273031640876</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1359.428427190267</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2434.488393443126</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2434.488393443126</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2434.488393443126</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3414.668060013433</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4242.977934846829</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4789.476720805425</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4958.630785558481</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4874.978911742318</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4654.911684615357</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4395.689381932373</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4033.0724318662</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3779.539980698123</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.397517277434</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2952.111393577087</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>605.3443607024624</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.8878995391047</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.797610685658</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.6771960126117</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>226.2933576287733</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.9082678949572</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>99.17261571116963</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>125.2362888716272</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.7946138378396</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1645.239599095639</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1762.412377189979</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.956939638362</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.778295968963</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1392.441748968932</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1193.324231030931</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1008.001476764125</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>853.1340410030048</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.6482617822255</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.6686527881009</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>777.1069412713258</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>611.2289484728485</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>441.4709447235858</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>264.7638906853419</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>99.17261571116963</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H19" t="n">
-        <v>99.17261571116963</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>99.17261571116963</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.7523008758595</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>460.5107554469951</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.7206372149561</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1338.204504395869</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1780.463307553514</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2200.132556779295</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.639450749637</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.83222561397</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.83222561397</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.593056571285</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.71361014974</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2173.280609402845</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1886.325101273276</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1614.298696859567</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.90694219298</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1141.487271507088</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771591</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5762,40 +5762,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477109</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6032,7 +6032,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883917</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716166</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731393</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238766</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6178,19 +6178,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6418,7 +6418,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
         <v>1617.386921419177</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6883,16 +6883,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130896</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.801834709351</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962456</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832887</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.636254561829</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1219.278299092984</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>791.8276588750514</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>390.8466168711752</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H35" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.674257000254</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>2751.674257000254</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3731.853923570561</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>4560.163798403957</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5106.662584362552</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1178.273886689112</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>1006.128964545197</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>840.6677611195801</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E37" t="n">
-        <v>671.3265467431773</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F37" t="n">
-        <v>495.0362820777935</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G37" t="n">
-        <v>329.8617964764812</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.3764115397157</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2677.818107813591</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2677.818107813591</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2399.801896439557</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>2113.263177682848</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1841.653562641999</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1596.678597348271</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1369.67571603524</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711752</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.798197351206</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.674257000255</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>2751.674257000255</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3731.853923570562</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4560.163798403958</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5106.662584362552</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919249</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165148</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617394</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1969248477087</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1008.93267231271</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>836.7877501687946</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>671.3265467431772</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>671.3265467431772</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>495.0362820777934</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>329.8617964764811</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>190.3764115397156</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2722.060823704771</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2476.598166656087</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2198.581955282052</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V40" t="n">
-        <v>1912.043236525342</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1640.433621484494</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1395.458656190766</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1168.455774877735</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2523.357152440202</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2085.631468996486</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1650.13847354379</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1216.780518074945</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>789.3298778570128</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>388.3488358531366</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>99.63547066921294</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>99.63547066921294</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>534.8901581221309</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1369.240450080309</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2444.300416333168</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2444.300416333168</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2626.78520609835</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3606.964872668656</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4435.274747502052</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4981.773533460647</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>4981.773533460647</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4898.538449017344</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4801.27928114711</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4542.473767836987</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4180.273607143673</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3775.834941927566</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3357.109267879737</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2949.23993355225</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>605.8072156605057</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>499.350754497148</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>404.2604656437013</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.140050970655</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>226.7562125868166</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>141.3711228530005</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>99.63547066921294</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>125.6991438296705</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>450.2574687958829</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1645.702454053682</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1762.875232148022</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1699.419794596405</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1569.241150927006</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1392.904603926975</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1193.787085988974</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1008.464331722168</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>853.5968959610481</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.1111167402688</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>838.4566979258469</v>
+        <v>864.7097725347917</v>
       </c>
       <c r="C43" t="n">
-        <v>838.4566979258469</v>
+        <v>692.1480610180166</v>
       </c>
       <c r="D43" t="n">
-        <v>672.9954945002296</v>
+        <v>526.2700682195393</v>
       </c>
       <c r="E43" t="n">
-        <v>503.6542801238268</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F43" t="n">
-        <v>327.364015458443</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G43" t="n">
-        <v>327.364015458443</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
-        <v>187.8786305216776</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>99.63547066921294</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.6236510982426</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7906009337182</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>880.4089779660193</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1340.301340411273</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1782.968638833257</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.046383323379</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.961772558061</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2719.563042686733</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2719.563042686733</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2560.73846335759</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2315.275806308905</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2059.984707676291</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1773.445988919582</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1501.836373878733</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1256.861408585006</v>
+        <v>1283.948061939671</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.858527271974</v>
+        <v>1056.528391253779</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2520.268927880592</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2082.543244436876</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1647.05024898418</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1213.692293515335</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>786.2416532974028</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>385.2606112935267</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>96.54724610960297</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.54724610960297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.8019335625208</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.152225520699</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.212191773559</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.212191773559</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.212191773559</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.391858343865</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.70173317726</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4796.200519135856</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4827.362305480148</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4744.127221036845</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4524.476783282744</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4265.67126997262</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3903.471109279307</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3499.0324440632</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3080.306770015371</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.15170899264</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.7189911008958</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.262529937538</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.1722410840913</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.051826411045</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.6679880272066</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.2828982933905</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.54724610960297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.6109192700606</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.1692442362729</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.614229494072</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.787007588412</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.331570036795</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.152926367397</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1389.816379367365</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.698861429364</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.376107162558</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.5086714014382</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.0228921806589</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1069.658540077083</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>897.5136179331677</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>732.0524145075503</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>665.7405411655293</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>489.4502765001454</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>324.2757908988331</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>184.7904059620676</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.54724610960297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.5354265386329</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.7023763741086</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>877.3207534064098</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1337.213115851663</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1779.880414273648</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2199.958158763769</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2547.873547998452</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2716.474818127124</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2695.473786205356</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2536.649206876212</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2291.186549827527</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2291.186549827527</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>2004.647831070818</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1733.038216029969</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1488.063250736242</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1261.06036942321</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8058,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8137,22 +8137,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>58.3846844139612</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368464</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611177</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238393</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,13 +8532,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>57.99715944515106</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,10 +8693,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>952.8480085222175</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>857.0093219741839</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9164,13 +9164,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>833.3344687133127</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>307.9556158071196</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10826,13 +10826,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>307.9556158071205</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>184.3280704698805</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>31.47655186292195</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>14.34705091555571</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627256</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>63.43016517136698</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>270.9771305717088</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>139.5921776627252</v>
+        <v>102.9863699957338</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>149.8097733866807</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627261</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>2.446659489829472</v>
       </c>
     </row>
     <row r="26">
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627268</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>113.4360448035841</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.0080304781979</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.55993951329112</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326387</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25594,19 +25594,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.2363335358519</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>81.78272691405303</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>121.1673571850287</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.4234729224759</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,13 +25795,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452992</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>22.49786161400669</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>52.42554389793625</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>270.9771305717084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>101.9990476240385</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602943</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>454585.8321002893</v>
+        <v>458813.2729080478</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>454585.8321002893</v>
+        <v>459574.4329233563</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>442639.7984335936</v>
+        <v>461535.2532727357</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>442639.7984335936</v>
+        <v>461535.2532727357</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>451088.8964103767</v>
+        <v>461535.2532727356</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>461704.8966885158</v>
+        <v>461535.2532727357</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>461704.8966885158</v>
+        <v>461535.2532727357</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>453255.7987117326</v>
+        <v>461535.2532727357</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>442809.4418493736</v>
+        <v>461535.2532727357</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495936.2708986276</v>
+        <v>495936.2708986278</v>
       </c>
       <c r="C2" t="n">
         <v>495936.2708986277</v>
       </c>
       <c r="D2" t="n">
-        <v>495936.2708986276</v>
+        <v>495936.2708986278</v>
       </c>
       <c r="E2" t="n">
-        <v>467391.2192030557</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="F2" t="n">
-        <v>467391.2192030558</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="G2" t="n">
-        <v>476312.7717125894</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="H2" t="n">
+        <v>487343.2653270508</v>
+      </c>
+      <c r="I2" t="n">
         <v>487343.2653270507</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>487343.2653270508</v>
       </c>
-      <c r="J2" t="n">
-        <v>487343.2653270507</v>
-      </c>
       <c r="K2" t="n">
-        <v>487343.2653270506</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="L2" t="n">
         <v>487343.2653270508</v>
       </c>
       <c r="M2" t="n">
-        <v>487561.6517477952</v>
+        <v>487343.2653270506</v>
       </c>
       <c r="N2" t="n">
-        <v>487561.6517477952</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="O2" t="n">
-        <v>478640.0992382618</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="P2" t="n">
-        <v>467609.6056238004</v>
+        <v>487343.2653270507</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501627</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998267</v>
       </c>
       <c r="E3" t="n">
-        <v>234126.8263659351</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8557.553879112202</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10415.38475254762</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877259</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622234</v>
       </c>
       <c r="M3" t="n">
-        <v>195343.3712995837</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>138489.2977955546</v>
       </c>
       <c r="D4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>26550.68047546984</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="F4" t="n">
-        <v>26550.68047546984</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="G4" t="n">
-        <v>27057.47923482531</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
+        <v>27684.07875020263</v>
+      </c>
+      <c r="I4" t="n">
         <v>27684.07875020268</v>
-      </c>
-      <c r="I4" t="n">
-        <v>27684.07875020272</v>
       </c>
       <c r="J4" t="n">
         <v>27684.07875020268</v>
@@ -26445,19 +26445,19 @@
         <v>27684.07875020268</v>
       </c>
       <c r="L4" t="n">
-        <v>27684.0787502026</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>28075.16394942165</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
-        <v>28075.16394942166</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="O4" t="n">
-        <v>27568.36519006617</v>
+        <v>27684.07875020266</v>
       </c>
       <c r="P4" t="n">
-        <v>26941.76567468881</v>
+        <v>27684.07875020263</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73472.87436677996</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>73472.87436677996</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>75371.1879404889</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.9599574399</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>75757.64638373093</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73410.59571842736</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112887.7956412332</v>
+        <v>112887.7956412334</v>
       </c>
       <c r="C6" t="n">
-        <v>255079.0963009432</v>
+        <v>218902.9914000542</v>
       </c>
       <c r="D6" t="n">
-        <v>255079.0963009431</v>
+        <v>279438.8505548675</v>
       </c>
       <c r="E6" t="n">
-        <v>133240.8379948708</v>
+        <v>199562.6144106232</v>
       </c>
       <c r="F6" t="n">
-        <v>367367.6643608061</v>
+        <v>381917.7236316729</v>
       </c>
       <c r="G6" t="n">
-        <v>365326.550658163</v>
+        <v>381917.7236316729</v>
       </c>
       <c r="H6" t="n">
-        <v>371525.5632185079</v>
+        <v>381917.723631673</v>
       </c>
       <c r="I6" t="n">
-        <v>381940.9479710555</v>
+        <v>381917.7236316729</v>
       </c>
       <c r="J6" t="n">
-        <v>270926.4826260653</v>
+        <v>270903.2582866827</v>
       </c>
       <c r="K6" t="n">
-        <v>381940.9479710555</v>
+        <v>328871.8689929003</v>
       </c>
       <c r="L6" t="n">
-        <v>381940.9479710557</v>
+        <v>372525.4219050507</v>
       </c>
       <c r="M6" t="n">
-        <v>186487.15654135</v>
+        <v>229717.5526936852</v>
       </c>
       <c r="N6" t="n">
-        <v>381830.5278409336</v>
+        <v>381917.723631673</v>
       </c>
       <c r="O6" t="n">
-        <v>375314.0876644647</v>
+        <v>381917.7236316729</v>
       </c>
       <c r="P6" t="n">
-        <v>367257.2442306842</v>
+        <v>381917.7236316729</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1239.65769638962</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1245.443383365162</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1206.840576370037</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791314603</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939308</v>
       </c>
       <c r="E4" t="n">
-        <v>784.1395761440397</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>31.22226272547641</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>38.60280699512477</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939308</v>
       </c>
       <c r="M4" t="n">
-        <v>782.5447188499322</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939308</v>
       </c>
       <c r="M4" t="n">
-        <v>784.1395761440397</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>31.22226272547641</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>38.60280699512477</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>14.40980989651644</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>97.00787993732121</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27445,7 +27445,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>329.8936720721061</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>322.0939307272928</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>148.6548552874551</v>
+        <v>140.8783988682142</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>113.7278999628234</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27862,7 +27862,7 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>86.55764165756284</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>122.9308428424049</v>
       </c>
     </row>
     <row r="11">
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>9.426533627750662e-13</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-8.232097024679733e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791313976</v>
+        <v>-8.800531213287814e-13</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791313976</v>
+        <v>-5.142369289011372e-13</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791313976</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34778,22 +34778,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>58.3846844139612</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368464</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611177</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,16 +35027,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238393</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,13 +35252,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>57.99715944515106</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>952.8480085222175</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,7 +35647,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,10 +35656,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>857.0093219741839</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908162</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,13 +35884,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>833.3344687133127</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157532</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,13 +36285,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>307.9556158071196</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>447.1386852747319</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>424.3209540304256</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,13 +37546,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>307.9556158071205</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821209</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>184.3280704698805</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.86684891821177</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.9464139752279</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>31.47655186292195</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.86684891821206</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.846845487173</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.320954030426</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
